--- a/kinder.xlsx
+++ b/kinder.xlsx
@@ -448,72 +448,72 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Tina</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mülller</t>
+          <t>Turner</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tina</t>
+          <t>Anton</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Turner</t>
+          <t>Ritter</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Leo</t>
+          <t xml:space="preserve">Felice </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Leiphert</t>
+          <t>Seidel</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rio</t>
+          <t>Leo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reiser</t>
+          <t>Leiphert</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Anton</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ritter</t>
+          <t>Mülller</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Felice </t>
+          <t>Rio</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Seidel</t>
+          <t>Reiser</t>
         </is>
       </c>
     </row>

--- a/kinder.xlsx
+++ b/kinder.xlsx
@@ -484,24 +484,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Leo</t>
+          <t>Carlos</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Leiphert</t>
+          <t>Mülller</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Carlos</t>
+          <t>Leo</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mülller</t>
+          <t>Leiphert</t>
         </is>
       </c>
     </row>
